--- a/TelegrammAspMvcDotNetCoreBot/Schedule Files/Mendeleev/2 course.xlsx
+++ b/TelegrammAspMvcDotNetCoreBot/Schedule Files/Mendeleev/2 course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22103"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_3876\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_3571\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{400C15A3-1839-41D2-BA10-B96C73BB1E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64176180-319B-4567-9599-9C08EE1B4728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Н-22,24,26,27" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="445">
   <si>
     <t>Осенний семестр</t>
   </si>
@@ -752,7 +752,7 @@
     <t xml:space="preserve"> л</t>
   </si>
   <si>
-    <t>525     516</t>
+    <t>426    516</t>
   </si>
   <si>
     <t>Рус. яз. и культура...  (1 н.)           Рус. яз. и культура...  (2 н.)</t>
@@ -761,7 +761,7 @@
     <t>с      л</t>
   </si>
   <si>
-    <t>436     516</t>
+    <t>3-303      516</t>
   </si>
   <si>
     <t xml:space="preserve">Экология (1 нед.)               Рус. яз. и культура... (2 н.)                     </t>
@@ -776,13 +776,13 @@
     <t>с ЕН-21, О-28</t>
   </si>
   <si>
-    <t>525         каф</t>
+    <t>525         3-313</t>
   </si>
   <si>
     <t>Экономика  (1 нед.)               Экология  (2 нед.)</t>
   </si>
   <si>
-    <t>517             518</t>
+    <t>3-313             518</t>
   </si>
   <si>
     <t>Экология  (1 нед.)           Правоведение (2 н.)</t>
@@ -801,6 +801,9 @@
   </si>
   <si>
     <t>Правоведение  (1 нед.)</t>
+  </si>
+  <si>
+    <t>3-313</t>
   </si>
   <si>
     <t>Экология  (2 нед.)</t>
@@ -1005,7 +1008,7 @@
     <t xml:space="preserve">Основы мен. и мар. (2 нед.)    </t>
   </si>
   <si>
-    <t>527        533</t>
+    <t>3-303     533</t>
   </si>
   <si>
     <t>Экология (1 нед.)                            Экология (2 нед.)</t>
@@ -1023,7 +1026,7 @@
     <t>Иностранный язык</t>
   </si>
   <si>
-    <t>К-333</t>
+    <t>К-709</t>
   </si>
   <si>
     <t>Графические информ. технологии</t>
@@ -1033,6 +1036,9 @@
   </si>
   <si>
     <t>с К-2</t>
+  </si>
+  <si>
+    <t>К-807</t>
   </si>
   <si>
     <t>9.00 РХТУ</t>
@@ -1200,6 +1206,9 @@
     <t>Физика (2 н.)</t>
   </si>
   <si>
+    <t>К--118</t>
+  </si>
+  <si>
     <t>3-404</t>
   </si>
   <si>
@@ -1255,9 +1264,6 @@
   </si>
   <si>
     <t>Физика (1 н.)</t>
-  </si>
-  <si>
-    <t>К-709</t>
   </si>
   <si>
     <t>Основы косметологии с 02.10</t>
@@ -1345,9 +1351,6 @@
   </si>
   <si>
     <t>Лабораторный практикум  по органической химии          по 21.10</t>
-  </si>
-  <si>
-    <t>3-313</t>
   </si>
   <si>
     <t>География</t>
@@ -4946,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="X40" sqref="X40:X41"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -8021,25 +8024,25 @@
       <c r="J3" s="25"/>
       <c r="K3" s="23"/>
       <c r="L3" s="30" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="32"/>
       <c r="O3" s="23"/>
       <c r="P3" s="30" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="32"/>
       <c r="S3" s="23"/>
       <c r="T3" s="239" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="32"/>
       <c r="W3" s="23"/>
       <c r="X3" s="239" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Y3" s="31"/>
       <c r="Z3" s="32"/>
@@ -8125,7 +8128,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M5" s="370" t="s">
         <v>32</v>
@@ -8135,7 +8138,7 @@
         <v>35</v>
       </c>
       <c r="P5" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="370" t="s">
         <v>32</v>
@@ -8195,7 +8198,7 @@
       </c>
       <c r="U6" s="160"/>
       <c r="V6" s="540" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="W6" s="280"/>
       <c r="X6" s="297"/>
@@ -8283,7 +8286,7 @@
         <v>35</v>
       </c>
       <c r="X8" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Y8" s="370" t="s">
         <v>32</v>
@@ -8577,7 +8580,7 @@
         <v>518</v>
       </c>
       <c r="L16" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M16" s="598" t="s">
         <v>27</v>
@@ -8587,7 +8590,7 @@
         <v>518</v>
       </c>
       <c r="P16" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="598" t="s">
         <v>27</v>
@@ -8597,7 +8600,7 @@
         <v>518</v>
       </c>
       <c r="T16" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U16" s="598" t="s">
         <v>27</v>
@@ -8607,7 +8610,7 @@
         <v>518</v>
       </c>
       <c r="X16" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Y16" s="598" t="s">
         <v>27</v>
@@ -8900,7 +8903,7 @@
       <c r="Q22" s="320"/>
       <c r="R22" s="114"/>
       <c r="S22" s="575" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T22" s="423" t="s">
         <v>61</v>
@@ -9055,7 +9058,7 @@
       </c>
       <c r="Y26" s="159"/>
       <c r="Z26" s="611" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="13.7" customHeight="1">
@@ -9125,7 +9128,7 @@
       </c>
       <c r="M28" s="160"/>
       <c r="N28" s="540" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O28" s="712" t="s">
         <v>20</v>
@@ -9135,7 +9138,7 @@
       </c>
       <c r="Q28" s="160"/>
       <c r="R28" s="540" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="S28" s="280"/>
       <c r="T28" s="297"/>
@@ -9326,7 +9329,7 @@
       </c>
       <c r="V32" s="559"/>
       <c r="W32" s="575" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="X32" s="423" t="s">
         <v>61</v>
@@ -9407,7 +9410,7 @@
         <v>35</v>
       </c>
       <c r="T34" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U34" s="370" t="s">
         <v>32</v>
@@ -9557,7 +9560,7 @@
       </c>
       <c r="U37" s="159"/>
       <c r="V37" s="611" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="W37" s="280"/>
       <c r="X37" s="297"/>
@@ -9615,7 +9618,7 @@
       </c>
       <c r="M39" s="160"/>
       <c r="N39" s="540" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O39" s="360" t="s">
         <v>35</v>
@@ -9645,7 +9648,7 @@
       </c>
       <c r="Y39" s="160"/>
       <c r="Z39" s="540" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="13.7" customHeight="1">
@@ -9695,7 +9698,7 @@
         <v>191</v>
       </c>
       <c r="L41" s="583" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M41" s="598" t="s">
         <v>27</v>
@@ -9705,7 +9708,7 @@
         <v>191</v>
       </c>
       <c r="P41" s="614" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q41" s="598" t="s">
         <v>27</v>
@@ -9715,17 +9718,17 @@
         <v>191</v>
       </c>
       <c r="T41" s="614" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="U41" s="598" t="s">
         <v>27</v>
       </c>
       <c r="V41" s="696"/>
       <c r="W41" s="638" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="X41" s="673" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Y41" s="75" t="s">
         <v>32</v>
@@ -9826,7 +9829,7 @@
       </c>
       <c r="N43" s="375"/>
       <c r="O43" s="507" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P43" s="539" t="s">
         <v>61</v>
@@ -10006,7 +10009,7 @@
         <v>40319</v>
       </c>
       <c r="K47" s="601" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L47" s="354" t="s">
         <v>13</v>
@@ -10016,7 +10019,7 @@
       </c>
       <c r="N47" s="655"/>
       <c r="O47" s="601" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P47" s="354" t="s">
         <v>13</v>
@@ -10026,7 +10029,7 @@
       </c>
       <c r="R47" s="655"/>
       <c r="S47" s="599" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T47" s="354" t="s">
         <v>13</v>
@@ -10036,7 +10039,7 @@
       </c>
       <c r="V47" s="681"/>
       <c r="W47" s="599" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X47" s="354" t="s">
         <v>13</v>
@@ -10122,7 +10125,7 @@
         <v>40319</v>
       </c>
       <c r="K49" s="601" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L49" s="354" t="s">
         <v>44</v>
@@ -10132,7 +10135,7 @@
       </c>
       <c r="N49" s="655"/>
       <c r="O49" s="601" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P49" s="354" t="s">
         <v>44</v>
@@ -10142,7 +10145,7 @@
       </c>
       <c r="R49" s="655"/>
       <c r="S49" s="601" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T49" s="354" t="s">
         <v>44</v>
@@ -10152,7 +10155,7 @@
       </c>
       <c r="V49" s="655"/>
       <c r="W49" s="601" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X49" s="354" t="s">
         <v>44</v>
@@ -10900,7 +10903,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -10995,25 +10998,25 @@
       <c r="J3" s="25"/>
       <c r="K3" s="23"/>
       <c r="L3" s="239" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="32"/>
       <c r="O3" s="23"/>
       <c r="P3" s="239" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="32"/>
       <c r="S3" s="71"/>
       <c r="T3" s="239" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="69"/>
       <c r="W3" s="71"/>
       <c r="X3" s="30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Y3" s="151"/>
       <c r="Z3" s="69"/>
@@ -11057,7 +11060,7 @@
         <v>43</v>
       </c>
       <c r="P4" s="705" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="652" t="s">
         <v>32</v>
@@ -11365,7 +11368,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M11" s="370" t="s">
         <v>32</v>
@@ -11513,7 +11516,7 @@
     <row r="16" spans="1:26" ht="13.7" customHeight="1">
       <c r="A16" s="459"/>
       <c r="B16" s="272" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C16" s="37">
         <v>40217</v>
@@ -11559,7 +11562,7 @@
     <row r="17" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
       <c r="A17" s="459"/>
       <c r="B17" s="67" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -11621,7 +11624,7 @@
         <v>518</v>
       </c>
       <c r="L18" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M18" s="598" t="s">
         <v>27</v>
@@ -11637,7 +11640,7 @@
         <v>27</v>
       </c>
       <c r="R18" s="396" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S18" s="203"/>
       <c r="T18" s="339"/>
@@ -11861,7 +11864,7 @@
         <v>35</v>
       </c>
       <c r="X22" s="362" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y22" s="636" t="s">
         <v>32</v>
@@ -11925,7 +11928,7 @@
         <v>35</v>
       </c>
       <c r="T24" s="362" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="U24" s="636" t="s">
         <v>32</v>
@@ -12089,7 +12092,7 @@
       </c>
       <c r="Y28" s="159"/>
       <c r="Z28" s="570" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="13.7" customHeight="1">
@@ -12173,7 +12176,7 @@
         <v>27</v>
       </c>
       <c r="R30" s="375" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S30" s="712" t="s">
         <v>20</v>
@@ -12183,10 +12186,10 @@
       </c>
       <c r="U30" s="160"/>
       <c r="V30" s="540" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="W30" s="601" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="X30" s="408" t="s">
         <v>117</v>
@@ -12256,7 +12259,7 @@
       <c r="Q32" s="320"/>
       <c r="R32" s="114"/>
       <c r="S32" s="451" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="T32" s="423" t="s">
         <v>61</v>
@@ -12266,13 +12269,13 @@
       </c>
       <c r="V32" s="425"/>
       <c r="W32" s="601" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="X32" s="354" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Y32" s="357" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Z32" s="483"/>
     </row>
@@ -12336,7 +12339,7 @@
         <v>40317</v>
       </c>
       <c r="K34" s="575" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L34" s="423" t="s">
         <v>61</v>
@@ -12414,10 +12417,10 @@
       </c>
       <c r="V35" s="697"/>
       <c r="W35" s="218" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="X35" s="219" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Y35" s="343" t="s">
         <v>14</v>
@@ -12571,19 +12574,19 @@
       </c>
       <c r="Q38" s="159"/>
       <c r="R38" s="570" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S38" s="315">
         <v>524</v>
       </c>
       <c r="T38" s="297" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="U38" s="320" t="s">
         <v>30</v>
       </c>
       <c r="V38" s="254" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="W38" s="315"/>
       <c r="X38" s="297"/>
@@ -12615,19 +12618,19 @@
         <v>524</v>
       </c>
       <c r="T39" s="423" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="U39" s="636" t="s">
         <v>30</v>
       </c>
       <c r="V39" s="696" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="W39" s="548" t="s">
         <v>35</v>
       </c>
       <c r="X39" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Y39" s="370" t="s">
         <v>32</v>
@@ -12652,7 +12655,7 @@
       <c r="M40" s="320"/>
       <c r="N40" s="114"/>
       <c r="O40" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P40" s="499" t="s">
         <v>44</v>
@@ -12661,7 +12664,7 @@
         <v>27</v>
       </c>
       <c r="R40" s="396" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S40" s="719"/>
       <c r="T40" s="539"/>
@@ -12719,14 +12722,14 @@
         <v>191</v>
       </c>
       <c r="L42" s="614" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M42" s="598" t="s">
         <v>27</v>
       </c>
       <c r="N42" s="696"/>
       <c r="O42" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P42" s="499" t="s">
         <v>13</v>
@@ -12735,13 +12738,13 @@
         <v>27</v>
       </c>
       <c r="R42" s="396" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S42" s="548" t="s">
         <v>35</v>
       </c>
       <c r="T42" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U42" s="370" t="s">
         <v>32</v>
@@ -12846,16 +12849,16 @@
       </c>
       <c r="N44" s="375"/>
       <c r="O44" s="502" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P44" s="394" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q44" s="357" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R44" s="396" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S44" s="549"/>
       <c r="T44" s="424"/>
@@ -13028,7 +13031,7 @@
         <v>40319</v>
       </c>
       <c r="K48" s="599" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L48" s="354" t="s">
         <v>13</v>
@@ -13057,7 +13060,7 @@
         <v>27</v>
       </c>
       <c r="V48" s="411" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="W48" s="700">
         <v>535</v>
@@ -13069,7 +13072,7 @@
         <v>27</v>
       </c>
       <c r="Z48" s="411" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -13148,7 +13151,7 @@
         <v>40319</v>
       </c>
       <c r="K50" s="601" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L50" s="499" t="s">
         <v>44</v>
@@ -13258,10 +13261,10 @@
         <v>199</v>
       </c>
       <c r="O52" s="644" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P52" s="583" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q52" s="324" t="s">
         <v>14</v>
@@ -13271,25 +13274,25 @@
         <v>535</v>
       </c>
       <c r="T52" s="368" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U52" s="430" t="s">
         <v>27</v>
       </c>
       <c r="V52" s="529" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="W52" s="497">
         <v>535</v>
       </c>
       <c r="X52" s="368" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Y52" s="430" t="s">
         <v>27</v>
       </c>
       <c r="Z52" s="529" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="13.7" customHeight="1">
@@ -13342,7 +13345,7 @@
       <c r="M54" s="320"/>
       <c r="N54" s="114"/>
       <c r="O54" s="451" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P54" s="423" t="s">
         <v>61</v>
@@ -13940,7 +13943,7 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38:X40"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14033,25 +14036,25 @@
       <c r="J3" s="25"/>
       <c r="K3" s="23"/>
       <c r="L3" s="239" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="69"/>
       <c r="O3" s="23"/>
       <c r="P3" s="239" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="32"/>
       <c r="S3" s="71"/>
       <c r="T3" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="69"/>
       <c r="W3" s="71"/>
       <c r="X3" s="239" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Y3" s="151"/>
       <c r="Z3" s="69"/>
@@ -14101,7 +14104,7 @@
         <v>35</v>
       </c>
       <c r="P4" s="362" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="636" t="s">
         <v>32</v>
@@ -14121,7 +14124,7 @@
         <v>35</v>
       </c>
       <c r="X4" s="362" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y4" s="636" t="s">
         <v>32</v>
@@ -14402,7 +14405,7 @@
         <v>72</v>
       </c>
       <c r="O10" s="608" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P10" s="367" t="s">
         <v>61</v>
@@ -14759,7 +14762,7 @@
         <v>35</v>
       </c>
       <c r="L18" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M18" s="370" t="s">
         <v>32</v>
@@ -14779,7 +14782,7 @@
         <v>35</v>
       </c>
       <c r="T18" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U18" s="370" t="s">
         <v>32</v>
@@ -14858,7 +14861,7 @@
       <c r="U20" s="438"/>
       <c r="V20" s="687"/>
       <c r="W20" s="608" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="X20" s="367" t="s">
         <v>61</v>
@@ -14915,7 +14918,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="362" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M22" s="636" t="s">
         <v>32</v>
@@ -15006,10 +15009,10 @@
       </c>
       <c r="N24" s="741"/>
       <c r="O24" s="601" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="P24" s="499" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q24" s="734" t="s">
         <v>14</v>
@@ -15023,7 +15026,7 @@
       </c>
       <c r="U24" s="159"/>
       <c r="V24" s="570" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W24" s="601" t="s">
         <v>69</v>
@@ -15098,20 +15101,20 @@
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="602" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L26" s="408" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M26" s="404" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="740"/>
       <c r="O26" s="601" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P26" s="499" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q26" s="734" t="s">
         <v>27</v>
@@ -15188,17 +15191,17 @@
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
       <c r="K28" s="601" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L28" s="499" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M28" s="734" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="722"/>
       <c r="O28" s="601" t="s">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c r="P28" s="499" t="s">
         <v>16</v>
@@ -15501,25 +15504,25 @@
         <v>524</v>
       </c>
       <c r="T34" s="297" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="U34" s="320" t="s">
         <v>30</v>
       </c>
       <c r="V34" s="254" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="W34" s="315">
         <v>524</v>
       </c>
       <c r="X34" s="297" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Y34" s="320" t="s">
         <v>30</v>
       </c>
       <c r="Z34" s="254" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="13.7" customHeight="1">
@@ -15543,7 +15546,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q35" s="370" t="s">
         <v>32</v>
@@ -15553,25 +15556,25 @@
         <v>524</v>
       </c>
       <c r="T35" s="423" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="U35" s="636" t="s">
         <v>30</v>
       </c>
       <c r="V35" s="696" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="W35" s="718">
         <v>524</v>
       </c>
       <c r="X35" s="423" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Y35" s="636" t="s">
         <v>30</v>
       </c>
       <c r="Z35" s="696" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1">
@@ -15683,7 +15686,7 @@
         <v>35</v>
       </c>
       <c r="X38" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Y38" s="370" t="s">
         <v>32</v>
@@ -15783,7 +15786,7 @@
         <v>35</v>
       </c>
       <c r="T40" s="362" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="U40" s="636" t="s">
         <v>32</v>
@@ -15957,7 +15960,7 @@
         <v>27</v>
       </c>
       <c r="N44" s="411" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="O44" s="700">
         <v>535</v>
@@ -15969,7 +15972,7 @@
         <v>27</v>
       </c>
       <c r="R44" s="411" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="S44" s="700">
         <v>535</v>
@@ -15981,7 +15984,7 @@
         <v>27</v>
       </c>
       <c r="V44" s="411" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="W44" s="700">
         <v>535</v>
@@ -15993,7 +15996,7 @@
         <v>27</v>
       </c>
       <c r="Z44" s="411" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -16175,49 +16178,49 @@
         <v>535</v>
       </c>
       <c r="L48" s="368" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M48" s="430" t="s">
         <v>27</v>
       </c>
       <c r="N48" s="529" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="O48" s="497">
         <v>535</v>
       </c>
       <c r="P48" s="368" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="430" t="s">
         <v>27</v>
       </c>
       <c r="R48" s="529" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="S48" s="497">
         <v>535</v>
       </c>
       <c r="T48" s="368" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U48" s="430" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="529" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="W48" s="497">
         <v>535</v>
       </c>
       <c r="X48" s="368" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Y48" s="430" t="s">
         <v>27</v>
       </c>
       <c r="Z48" s="529" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="13.7" customHeight="1">
@@ -16439,7 +16442,7 @@
       </c>
       <c r="M55" s="160"/>
       <c r="N55" s="522" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O55" s="469" t="s">
         <v>20</v>
@@ -16449,7 +16452,7 @@
       </c>
       <c r="Q55" s="160"/>
       <c r="R55" s="522" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="S55" s="79"/>
       <c r="T55" s="78"/>
@@ -16463,7 +16466,7 @@
       </c>
       <c r="Y55" s="160"/>
       <c r="Z55" s="522" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -16890,7 +16893,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="T58" sqref="T58"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5:K7"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -16985,25 +16988,25 @@
       <c r="J3" s="25"/>
       <c r="K3" s="71"/>
       <c r="L3" s="30" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="69"/>
       <c r="O3" s="71"/>
       <c r="P3" s="30" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q3" s="151"/>
       <c r="R3" s="69"/>
       <c r="S3" s="71"/>
       <c r="T3" s="239" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="U3" s="275"/>
       <c r="V3" s="276"/>
       <c r="W3" s="277"/>
       <c r="X3" s="239" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Y3" s="31"/>
       <c r="Z3" s="69"/>
@@ -17044,7 +17047,7 @@
       <c r="M4" s="112"/>
       <c r="N4" s="106"/>
       <c r="O4" s="315" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P4" s="297"/>
       <c r="Q4" s="320"/>
@@ -17100,7 +17103,7 @@
         <v>40315</v>
       </c>
       <c r="K5" s="392" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="L5" s="499" t="s">
         <v>224</v>
@@ -17159,7 +17162,7 @@
         <v>35</v>
       </c>
       <c r="P6" s="499" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q6" s="504" t="s">
         <v>32</v>
@@ -17255,7 +17258,7 @@
         <v>27</v>
       </c>
       <c r="N8" s="655" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O8" s="389" t="s">
         <v>81</v>
@@ -17267,10 +17270,10 @@
         <v>27</v>
       </c>
       <c r="R8" s="655" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S8" s="315" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="T8" s="297"/>
       <c r="U8" s="320"/>
@@ -17333,7 +17336,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="499" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M10" s="504" t="s">
         <v>32</v>
@@ -17637,7 +17640,7 @@
       </c>
       <c r="M17" s="160"/>
       <c r="N17" s="540" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O17" s="712" t="s">
         <v>20</v>
@@ -17647,7 +17650,7 @@
       </c>
       <c r="Q17" s="160"/>
       <c r="R17" s="540" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S17" s="360">
         <v>442</v>
@@ -17740,7 +17743,7 @@
       </c>
       <c r="N19" s="576"/>
       <c r="O19" s="315" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P19" s="297"/>
       <c r="Q19" s="320"/>
@@ -17749,25 +17752,25 @@
         <v>426</v>
       </c>
       <c r="T19" s="362" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="U19" s="636" t="s">
         <v>30</v>
       </c>
       <c r="V19" s="629" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="W19" s="364">
         <v>426</v>
       </c>
       <c r="X19" s="362" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Y19" s="636" t="s">
         <v>30</v>
       </c>
       <c r="Z19" s="629" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.7" customHeight="1">
@@ -17817,7 +17820,7 @@
         <v>423</v>
       </c>
       <c r="L21" s="367" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M21" s="370" t="s">
         <v>14</v>
@@ -17886,33 +17889,33 @@
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="510" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L23" s="367" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M23" s="370" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="544"/>
       <c r="O23" s="510" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P23" s="367" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="370" t="s">
         <v>14</v>
       </c>
       <c r="R23" s="544"/>
       <c r="S23" s="315" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="T23" s="297"/>
       <c r="U23" s="320"/>
       <c r="V23" s="114"/>
       <c r="W23" s="315" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="X23" s="297"/>
       <c r="Y23" s="320"/>
@@ -18013,7 +18016,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="745" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M26" s="747" t="s">
         <v>32</v>
@@ -18023,7 +18026,7 @@
         <v>35</v>
       </c>
       <c r="P26" s="745" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="747" t="s">
         <v>32</v>
@@ -18037,7 +18040,7 @@
       </c>
       <c r="U26" s="160"/>
       <c r="V26" s="540" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="W26" s="469" t="s">
         <v>20</v>
@@ -18047,7 +18050,7 @@
       </c>
       <c r="Y26" s="160"/>
       <c r="Z26" s="540" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="13.7" customHeight="1">
@@ -18121,7 +18124,7 @@
         <v>440</v>
       </c>
       <c r="T28" s="367" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="U28" s="370" t="s">
         <v>14</v>
@@ -18131,7 +18134,7 @@
         <v>440</v>
       </c>
       <c r="X28" s="367" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Y28" s="370" t="s">
         <v>14</v>
@@ -18185,31 +18188,31 @@
         <v>518</v>
       </c>
       <c r="L30" s="386" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M30" s="597" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="576" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O30" s="451">
         <v>518</v>
       </c>
       <c r="P30" s="386" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q30" s="597" t="s">
         <v>27</v>
       </c>
       <c r="R30" s="576" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S30" s="750" t="s">
         <v>35</v>
       </c>
       <c r="T30" s="754" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="U30" s="755" t="s">
         <v>32</v>
@@ -18219,7 +18222,7 @@
         <v>35</v>
       </c>
       <c r="X30" s="754" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Y30" s="755" t="s">
         <v>32</v>
@@ -18404,7 +18407,7 @@
       <c r="U35" s="348"/>
       <c r="V35" s="350"/>
       <c r="W35" s="315" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="X35" s="297"/>
       <c r="Y35" s="320"/>
@@ -18459,7 +18462,7 @@
     <row r="37" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
       <c r="A37" s="450"/>
       <c r="B37" s="154" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C37" s="37">
         <v>40219</v>
@@ -18629,7 +18632,7 @@
         <v>418</v>
       </c>
       <c r="L40" s="386" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M40" s="597" t="s">
         <v>27</v>
@@ -18639,7 +18642,7 @@
         <v>418</v>
       </c>
       <c r="P40" s="386" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q40" s="597" t="s">
         <v>27</v>
@@ -18649,7 +18652,7 @@
         <v>418</v>
       </c>
       <c r="T40" s="386" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="U40" s="597" t="s">
         <v>27</v>
@@ -18659,7 +18662,7 @@
         <v>418</v>
       </c>
       <c r="X40" s="386" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Y40" s="597" t="s">
         <v>27</v>
@@ -18723,7 +18726,7 @@
         <v>534</v>
       </c>
       <c r="P42" s="367" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q42" s="370" t="s">
         <v>14</v>
@@ -18740,7 +18743,7 @@
       </c>
       <c r="V42" s="696"/>
       <c r="W42" s="608" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="X42" s="367" t="s">
         <v>61</v>
@@ -18844,7 +18847,7 @@
       </c>
       <c r="R44" s="696"/>
       <c r="S44" s="608" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="T44" s="367" t="s">
         <v>61</v>
@@ -19023,7 +19026,7 @@
         <v>27</v>
       </c>
       <c r="N48" s="411" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O48" s="468">
         <v>535</v>
@@ -19035,7 +19038,7 @@
         <v>27</v>
       </c>
       <c r="R48" s="411" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="S48" s="468">
         <v>535</v>
@@ -19047,7 +19050,7 @@
         <v>27</v>
       </c>
       <c r="V48" s="411" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="W48" s="468">
         <v>535</v>
@@ -19059,7 +19062,7 @@
         <v>27</v>
       </c>
       <c r="Z48" s="411" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -19953,7 +19956,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="T18" sqref="T18:T19"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6:P7"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -20048,25 +20051,25 @@
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M3" s="61"/>
       <c r="N3" s="29"/>
       <c r="O3" s="23"/>
       <c r="P3" s="30" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="32"/>
       <c r="S3" s="71"/>
       <c r="T3" s="30" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="69"/>
       <c r="W3" s="26"/>
       <c r="X3" s="278" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Y3" s="61"/>
       <c r="Z3" s="29"/>
@@ -20107,7 +20110,7 @@
       <c r="M4" s="337"/>
       <c r="N4" s="54"/>
       <c r="O4" s="389" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="P4" s="354" t="s">
         <v>16</v>
@@ -20120,7 +20123,7 @@
         <v>35</v>
       </c>
       <c r="T4" s="368" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="U4" s="414" t="s">
         <v>32</v>
@@ -20130,7 +20133,7 @@
         <v>35</v>
       </c>
       <c r="X4" s="368" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Y4" s="414" t="s">
         <v>32</v>
@@ -20225,10 +20228,10 @@
         <v>22</v>
       </c>
       <c r="O6" s="389" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P6" s="354" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="504" t="s">
         <v>27</v>
@@ -20308,39 +20311,39 @@
         <v>35</v>
       </c>
       <c r="L8" s="368" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M8" s="430" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="432"/>
       <c r="O8" s="502" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P8" s="499" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="504" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="546" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="S8" s="582" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="T8" s="758" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="U8" s="762" t="s">
         <v>30</v>
       </c>
       <c r="V8" s="760"/>
       <c r="W8" s="582" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="X8" s="758" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y8" s="762" t="s">
         <v>30</v>
@@ -20405,14 +20408,14 @@
         <v>117</v>
       </c>
       <c r="U10" s="381" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="V10" s="384"/>
       <c r="W10" s="497" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="X10" s="413" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y10" s="382" t="s">
         <v>14</v>
@@ -20566,7 +20569,7 @@
         <v>27</v>
       </c>
       <c r="N14" s="401" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O14" s="654">
         <v>440</v>
@@ -20663,7 +20666,7 @@
         <v>40316</v>
       </c>
       <c r="K16" s="392" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L16" s="499" t="s">
         <v>16</v>
@@ -20765,7 +20768,7 @@
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="392" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L18" s="499" t="s">
         <v>13</v>
@@ -20779,10 +20782,10 @@
       <c r="Q18" s="338"/>
       <c r="R18" s="53"/>
       <c r="S18" s="497" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T18" s="413" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U18" s="382" t="s">
         <v>14</v>
@@ -20795,7 +20798,7 @@
         <v>117</v>
       </c>
       <c r="Y18" s="381" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z18" s="384"/>
     </row>
@@ -20843,7 +20846,7 @@
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="392" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L20" s="499" t="s">
         <v>61</v>
@@ -20896,7 +20899,7 @@
         <v>35</v>
       </c>
       <c r="T21" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U21" s="370" t="s">
         <v>32</v>
@@ -20906,7 +20909,7 @@
         <v>35</v>
       </c>
       <c r="X21" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Y21" s="370" t="s">
         <v>32</v>
@@ -21011,7 +21014,7 @@
         <v>45</v>
       </c>
       <c r="M24" s="701" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N24" s="416"/>
       <c r="O24" s="497" t="s">
@@ -21024,7 +21027,7 @@
         <v>27</v>
       </c>
       <c r="R24" s="536" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S24" s="573" t="s">
         <v>20</v>
@@ -21034,7 +21037,7 @@
       </c>
       <c r="U24" s="159"/>
       <c r="V24" s="692" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="W24" s="573" t="s">
         <v>20</v>
@@ -21044,7 +21047,7 @@
       </c>
       <c r="Y24" s="159"/>
       <c r="Z24" s="692" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.7" customHeight="1">
@@ -21129,20 +21132,20 @@
       </c>
       <c r="R26" s="544"/>
       <c r="S26" s="582" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="T26" s="758" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="U26" s="762" t="s">
         <v>30</v>
       </c>
       <c r="V26" s="760"/>
       <c r="W26" s="582" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="X26" s="758" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y26" s="762" t="s">
         <v>30</v>
@@ -21201,28 +21204,28 @@
       <c r="Q28" s="338"/>
       <c r="R28" s="53"/>
       <c r="S28" s="497" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="T28" s="362" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U28" s="636" t="s">
         <v>30</v>
       </c>
       <c r="V28" s="696" t="s">
+        <v>427</v>
+      </c>
+      <c r="W28" s="582" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" s="362" t="s">
         <v>426</v>
-      </c>
-      <c r="W28" s="582" t="s">
-        <v>420</v>
-      </c>
-      <c r="X28" s="362" t="s">
-        <v>425</v>
       </c>
       <c r="Y28" s="636" t="s">
         <v>30</v>
       </c>
       <c r="Z28" s="696" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -21518,7 +21521,7 @@
         <v>175</v>
       </c>
       <c r="T34" s="673" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="U34" s="75" t="s">
         <v>32</v>
@@ -21528,7 +21531,7 @@
         <v>175</v>
       </c>
       <c r="X34" s="673" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y34" s="75" t="s">
         <v>14</v>
@@ -21583,7 +21586,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
       <c r="K36" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" s="499" t="s">
         <v>44</v>
@@ -21592,7 +21595,7 @@
         <v>27</v>
       </c>
       <c r="N36" s="396" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O36" s="417" t="s">
         <v>191</v>
@@ -21604,13 +21607,13 @@
         <v>27</v>
       </c>
       <c r="R36" s="375" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S36" s="582" t="s">
         <v>35</v>
       </c>
       <c r="T36" s="758" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="U36" s="762" t="s">
         <v>27</v>
@@ -21620,7 +21623,7 @@
         <v>35</v>
       </c>
       <c r="X36" s="758" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Y36" s="762" t="s">
         <v>27</v>
@@ -21671,7 +21674,7 @@
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" s="499" t="s">
         <v>13</v>
@@ -21684,7 +21687,7 @@
         <v>35</v>
       </c>
       <c r="P38" s="362" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q38" s="636" t="s">
         <v>32</v>
@@ -21704,7 +21707,7 @@
         <v>412</v>
       </c>
       <c r="X38" s="386" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y38" s="370" t="s">
         <v>14</v>
@@ -21789,13 +21792,13 @@
         <v>40318</v>
       </c>
       <c r="K40" s="502" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L40" s="499" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M40" s="357" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N40" s="396"/>
       <c r="O40" s="73"/>
@@ -21806,7 +21809,7 @@
         <v>528</v>
       </c>
       <c r="T40" s="386" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="U40" s="370" t="s">
         <v>14</v>
@@ -21981,20 +21984,20 @@
         <v>40319</v>
       </c>
       <c r="K44" s="468" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L44" s="410" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M44" s="764" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N44" s="467"/>
       <c r="O44" s="435" t="s">
         <v>35</v>
       </c>
       <c r="P44" s="368" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q44" s="430" t="s">
         <v>32</v>
@@ -22004,7 +22007,7 @@
         <v>518</v>
       </c>
       <c r="T44" s="386" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="U44" s="597" t="s">
         <v>27</v>
@@ -22014,7 +22017,7 @@
         <v>518</v>
       </c>
       <c r="X44" s="386" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y44" s="597" t="s">
         <v>27</v>
@@ -22100,13 +22103,13 @@
         <v>163</v>
       </c>
       <c r="L46" s="362" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M46" s="381" t="s">
         <v>30</v>
       </c>
       <c r="N46" s="544" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O46" s="436"/>
       <c r="P46" s="490"/>
@@ -22122,7 +22125,7 @@
         <v>27</v>
       </c>
       <c r="V46" s="421" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W46" s="638" t="s">
         <v>42</v>
@@ -22134,7 +22137,7 @@
         <v>27</v>
       </c>
       <c r="Z46" s="421" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="13.7" customHeight="1">
@@ -22207,32 +22210,32 @@
         <v>45</v>
       </c>
       <c r="Q48" s="701" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R48" s="416"/>
       <c r="S48" s="497" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T48" s="368" t="s">
+        <v>442</v>
+      </c>
+      <c r="U48" s="370" t="s">
+        <v>443</v>
+      </c>
+      <c r="V48" s="529" t="s">
+        <v>341</v>
+      </c>
+      <c r="W48" s="497" t="s">
         <v>441</v>
       </c>
-      <c r="U48" s="370" t="s">
+      <c r="X48" s="368" t="s">
         <v>442</v>
       </c>
-      <c r="V48" s="529" t="s">
-        <v>339</v>
-      </c>
-      <c r="W48" s="497" t="s">
-        <v>440</v>
-      </c>
-      <c r="X48" s="368" t="s">
-        <v>441</v>
-      </c>
       <c r="Y48" s="370" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z48" s="529" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="13.7" customHeight="1">
@@ -22946,7 +22949,7 @@
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1">
       <c r="B2" s="454" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" s="455"/>
       <c r="D2" s="455"/>
@@ -33893,9 +33896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12:W13"/>
+      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -35771,7 +35774,7 @@
         <v>244</v>
       </c>
       <c r="M42" s="370" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N42" s="544"/>
       <c r="O42" s="608">
@@ -35781,14 +35784,14 @@
         <v>241</v>
       </c>
       <c r="Q42" s="370" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="R42" s="544"/>
-      <c r="S42" s="608">
-        <v>525</v>
+      <c r="S42" s="608" t="s">
+        <v>245</v>
       </c>
       <c r="T42" s="539" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U42" s="370" t="s">
         <v>14</v>
@@ -35986,7 +35989,7 @@
         <v>426</v>
       </c>
       <c r="T46" s="562" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U46" s="466" t="s">
         <v>14</v>
@@ -36096,7 +36099,7 @@
         <v>424</v>
       </c>
       <c r="T48" s="539" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="U48" s="370" t="s">
         <v>14</v>
@@ -36191,10 +36194,10 @@
       </c>
       <c r="V50" s="379"/>
       <c r="W50" s="510" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X50" s="367" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y50" s="370" t="s">
         <v>152</v>
@@ -36248,7 +36251,7 @@
         <v>526</v>
       </c>
       <c r="L52" s="609" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M52" s="370" t="s">
         <v>152</v>
@@ -37001,25 +37004,25 @@
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M3" s="61"/>
       <c r="N3" s="29"/>
       <c r="O3" s="23"/>
       <c r="P3" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="32"/>
       <c r="S3" s="71"/>
       <c r="T3" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="69"/>
       <c r="W3" s="71"/>
       <c r="X3" s="30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y3" s="31"/>
       <c r="Z3" s="69"/>
@@ -37063,7 +37066,7 @@
       </c>
       <c r="M4" s="159"/>
       <c r="N4" s="570" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O4" s="573" t="s">
         <v>20</v>
@@ -37073,7 +37076,7 @@
       </c>
       <c r="Q4" s="159"/>
       <c r="R4" s="570" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S4" s="469" t="s">
         <v>20</v>
@@ -37083,7 +37086,7 @@
       </c>
       <c r="U4" s="160"/>
       <c r="V4" s="521" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W4" s="469" t="s">
         <v>20</v>
@@ -37093,7 +37096,7 @@
       </c>
       <c r="Y4" s="160"/>
       <c r="Z4" s="521" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -37172,40 +37175,40 @@
         <v>40315</v>
       </c>
       <c r="K6" s="389" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L6" s="354" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M6" s="504" t="s">
         <v>27</v>
       </c>
       <c r="N6" s="626"/>
       <c r="O6" s="389" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P6" s="354" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="504" t="s">
         <v>27</v>
       </c>
       <c r="R6" s="626"/>
       <c r="S6" s="389" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T6" s="354" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U6" s="504" t="s">
         <v>27</v>
       </c>
       <c r="V6" s="626"/>
       <c r="W6" s="389" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X6" s="354" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y6" s="504" t="s">
         <v>27</v>
@@ -37272,52 +37275,52 @@
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="392" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" s="499" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M8" s="504" t="s">
         <v>30</v>
       </c>
       <c r="N8" s="546" t="s">
+        <v>260</v>
+      </c>
+      <c r="O8" s="392" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="499" t="s">
         <v>259</v>
-      </c>
-      <c r="O8" s="392" t="s">
-        <v>257</v>
-      </c>
-      <c r="P8" s="499" t="s">
-        <v>258</v>
       </c>
       <c r="Q8" s="504" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="546" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S8" s="502" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T8" s="499" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U8" s="504" t="s">
         <v>30</v>
       </c>
       <c r="V8" s="546" t="s">
+        <v>263</v>
+      </c>
+      <c r="W8" s="502" t="s">
+        <v>261</v>
+      </c>
+      <c r="X8" s="499" t="s">
         <v>262</v>
-      </c>
-      <c r="W8" s="502" t="s">
-        <v>260</v>
-      </c>
-      <c r="X8" s="499" t="s">
-        <v>261</v>
       </c>
       <c r="Y8" s="504" t="s">
         <v>30</v>
       </c>
       <c r="Z8" s="546" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.7" customHeight="1">
@@ -37536,10 +37539,10 @@
       </c>
       <c r="V14" s="375"/>
       <c r="W14" s="634" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X14" s="633" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y14" s="112" t="s">
         <v>14</v>
@@ -37966,10 +37969,10 @@
         <v>40317</v>
       </c>
       <c r="K24" s="634" t="s">
+        <v>266</v>
+      </c>
+      <c r="L24" s="633" t="s">
         <v>265</v>
-      </c>
-      <c r="L24" s="633" t="s">
-        <v>264</v>
       </c>
       <c r="M24" s="112" t="s">
         <v>27</v>
@@ -37979,7 +37982,7 @@
         <v>191</v>
       </c>
       <c r="P24" s="639" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q24" s="371" t="s">
         <v>107</v>
@@ -37995,7 +37998,7 @@
         <v>27</v>
       </c>
       <c r="V24" s="536" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W24" s="497" t="s">
         <v>191</v>
@@ -38007,7 +38010,7 @@
         <v>27</v>
       </c>
       <c r="Z24" s="536" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.7" customHeight="1">
@@ -38098,7 +38101,7 @@
       </c>
       <c r="R26" s="618"/>
       <c r="S26" s="644" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T26" s="583" t="s">
         <v>207</v>
@@ -38174,10 +38177,10 @@
       </c>
       <c r="N28" s="637"/>
       <c r="O28" s="638" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P28" s="614" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q28" s="624" t="s">
         <v>32</v>
@@ -38557,7 +38560,7 @@
         <v>27</v>
       </c>
       <c r="N36" s="375" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O36" s="417" t="s">
         <v>191</v>
@@ -38569,7 +38572,7 @@
         <v>27</v>
       </c>
       <c r="R36" s="375" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S36" s="417" t="s">
         <v>191</v>
@@ -38581,7 +38584,7 @@
         <v>27</v>
       </c>
       <c r="V36" s="375" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W36" s="417" t="s">
         <v>191</v>
@@ -38593,7 +38596,7 @@
         <v>27</v>
       </c>
       <c r="Z36" s="375" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="13.7" customHeight="1">
@@ -39125,7 +39128,7 @@
         <v>35</v>
       </c>
       <c r="L48" s="368" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M48" s="430" t="s">
         <v>32</v>
@@ -39135,7 +39138,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="368" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q48" s="430" t="s">
         <v>32</v>
@@ -39145,7 +39148,7 @@
         <v>35</v>
       </c>
       <c r="T48" s="368" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U48" s="430" t="s">
         <v>32</v>
@@ -39155,7 +39158,7 @@
         <v>35</v>
       </c>
       <c r="X48" s="368" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y48" s="430" t="s">
         <v>32</v>
@@ -39773,7 +39776,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P46" sqref="P46:P47"/>
+      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -39868,28 +39871,28 @@
       <c r="J3" s="25"/>
       <c r="K3" s="23"/>
       <c r="L3" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="69"/>
       <c r="O3" s="23"/>
       <c r="P3" s="30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="32"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27" t="s">
+      <c r="S3" s="23"/>
+      <c r="T3" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="29"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="69"/>
     </row>
     <row r="4" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
       <c r="A4" s="441" t="s">
@@ -39930,32 +39933,32 @@
         <v>35</v>
       </c>
       <c r="P4" s="368" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="414" t="s">
         <v>32</v>
       </c>
       <c r="R4" s="411"/>
-      <c r="S4" s="654" t="s">
+      <c r="S4" s="435" t="s">
         <v>35</v>
       </c>
       <c r="T4" s="368" t="s">
+        <v>280</v>
+      </c>
+      <c r="U4" s="430" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="432"/>
+      <c r="W4" s="435" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="368" t="s">
         <v>279</v>
       </c>
-      <c r="U4" s="414" t="s">
+      <c r="Y4" s="430" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="411"/>
-      <c r="W4" s="654" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="368" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y4" s="414" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="411"/>
+      <c r="Z4" s="432"/>
     </row>
     <row r="5" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
       <c r="A5" s="459"/>
@@ -40112,7 +40115,7 @@
         <v>35</v>
       </c>
       <c r="L8" s="368" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M8" s="430" t="s">
         <v>32</v>
@@ -40344,7 +40347,7 @@
         <v>27</v>
       </c>
       <c r="N14" s="396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O14" s="392" t="s">
         <v>81</v>
@@ -40356,7 +40359,7 @@
         <v>27</v>
       </c>
       <c r="R14" s="396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S14" s="398" t="s">
         <v>81</v>
@@ -40368,7 +40371,7 @@
         <v>27</v>
       </c>
       <c r="V14" s="401" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W14" s="398" t="s">
         <v>81</v>
@@ -40380,7 +40383,7 @@
         <v>27</v>
       </c>
       <c r="Z14" s="401" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -40469,7 +40472,7 @@
       </c>
       <c r="N16" s="396"/>
       <c r="O16" s="392" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P16" s="499" t="s">
         <v>16</v>
@@ -40489,7 +40492,7 @@
       </c>
       <c r="V16" s="396"/>
       <c r="W16" s="392" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X16" s="499" t="s">
         <v>16</v>
@@ -40569,7 +40572,7 @@
         <v>199</v>
       </c>
       <c r="O18" s="389" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P18" s="499" t="s">
         <v>13</v>
@@ -40589,7 +40592,7 @@
       </c>
       <c r="V18" s="396"/>
       <c r="W18" s="392" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X18" s="499" t="s">
         <v>13</v>
@@ -40647,7 +40650,7 @@
       <c r="M20" s="75"/>
       <c r="N20" s="74"/>
       <c r="O20" s="389" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P20" s="499" t="s">
         <v>61</v>
@@ -40657,7 +40660,7 @@
       </c>
       <c r="R20" s="569"/>
       <c r="S20" s="389" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="T20" s="499" t="s">
         <v>61</v>
@@ -40799,7 +40802,7 @@
         <v>40317</v>
       </c>
       <c r="K24" s="468" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L24" s="562" t="s">
         <v>61</v>
@@ -40829,7 +40832,7 @@
       </c>
       <c r="V24" s="467"/>
       <c r="W24" s="644" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X24" s="583" t="s">
         <v>207</v>
@@ -40910,7 +40913,7 @@
         <v>27</v>
       </c>
       <c r="N26" s="375" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O26" s="417" t="s">
         <v>191</v>
@@ -41286,7 +41289,7 @@
       </c>
       <c r="M34" s="159"/>
       <c r="N34" s="648" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O34" s="573" t="s">
         <v>20</v>
@@ -41296,7 +41299,7 @@
       </c>
       <c r="Q34" s="159"/>
       <c r="R34" s="648" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S34" s="469" t="s">
         <v>20</v>
@@ -41306,7 +41309,7 @@
       </c>
       <c r="U34" s="160"/>
       <c r="V34" s="653" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W34" s="573" t="s">
         <v>20</v>
@@ -41316,7 +41319,7 @@
       </c>
       <c r="Y34" s="159"/>
       <c r="Z34" s="648" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="13.7" customHeight="1">
@@ -41363,7 +41366,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
       <c r="K36" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" s="499" t="s">
         <v>44</v>
@@ -41372,10 +41375,10 @@
         <v>27</v>
       </c>
       <c r="N36" s="396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O36" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P36" s="499" t="s">
         <v>44</v>
@@ -41384,10 +41387,10 @@
         <v>27</v>
       </c>
       <c r="R36" s="396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S36" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T36" s="499" t="s">
         <v>44</v>
@@ -41396,10 +41399,10 @@
         <v>27</v>
       </c>
       <c r="V36" s="396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W36" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X36" s="499" t="s">
         <v>44</v>
@@ -41408,7 +41411,7 @@
         <v>27</v>
       </c>
       <c r="Z36" s="396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="13.7" customHeight="1">
@@ -41455,7 +41458,7 @@
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" s="499" t="s">
         <v>13</v>
@@ -41464,10 +41467,10 @@
         <v>27</v>
       </c>
       <c r="N38" s="396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O38" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P38" s="499" t="s">
         <v>13</v>
@@ -41476,10 +41479,10 @@
         <v>27</v>
       </c>
       <c r="R38" s="396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S38" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T38" s="499" t="s">
         <v>13</v>
@@ -41489,7 +41492,7 @@
       </c>
       <c r="V38" s="396"/>
       <c r="W38" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X38" s="499" t="s">
         <v>13</v>
@@ -41575,43 +41578,43 @@
         <v>40318</v>
       </c>
       <c r="K40" s="502" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L40" s="394" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M40" s="357" t="s">
         <v>107</v>
       </c>
       <c r="N40" s="396"/>
       <c r="O40" s="502" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P40" s="394" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q40" s="357" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R40" s="396"/>
       <c r="S40" s="502" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T40" s="394" t="s">
+        <v>295</v>
+      </c>
+      <c r="U40" s="357" t="s">
         <v>294</v>
-      </c>
-      <c r="U40" s="357" t="s">
-        <v>293</v>
       </c>
       <c r="V40" s="396"/>
       <c r="W40" s="502" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X40" s="394" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y40" s="357" t="s">
         <v>294</v>
-      </c>
-      <c r="Y40" s="357" t="s">
-        <v>293</v>
       </c>
       <c r="Z40" s="396"/>
     </row>
@@ -41787,10 +41790,10 @@
       </c>
       <c r="N44" s="421"/>
       <c r="O44" s="634" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P44" s="633" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="112" t="s">
         <v>14</v>
@@ -41889,10 +41892,10 @@
         <v>40319</v>
       </c>
       <c r="K46" s="638" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L46" s="583" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M46" s="324" t="s">
         <v>32</v>
@@ -41909,10 +41912,10 @@
       </c>
       <c r="R46" s="375"/>
       <c r="S46" s="644" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T46" s="583" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U46" s="324" t="s">
         <v>14</v>
@@ -41990,7 +41993,7 @@
         <v>418</v>
       </c>
       <c r="L48" s="614" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M48" s="597" t="s">
         <v>27</v>
@@ -42671,7 +42674,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="V30" sqref="V30:V31"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8:O9"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -42766,25 +42769,25 @@
       <c r="J3" s="25"/>
       <c r="K3" s="23"/>
       <c r="L3" s="239" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="32"/>
       <c r="O3" s="23"/>
       <c r="P3" s="239" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="32"/>
       <c r="S3" s="71"/>
       <c r="T3" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="69"/>
       <c r="W3" s="71"/>
       <c r="X3" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y3" s="151"/>
       <c r="Z3" s="69"/>
@@ -42926,7 +42929,7 @@
         <v>525</v>
       </c>
       <c r="P6" s="368" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="370" t="s">
         <v>14</v>
@@ -43023,13 +43026,13 @@
       </c>
       <c r="N8" s="679"/>
       <c r="O8" s="419" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P8" s="368" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="370" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R8" s="676"/>
       <c r="S8" s="389" t="s">
@@ -43042,7 +43045,7 @@
         <v>27</v>
       </c>
       <c r="V8" s="655" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W8" s="389" t="s">
         <v>81</v>
@@ -43054,7 +43057,7 @@
         <v>27</v>
       </c>
       <c r="Z8" s="655" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.7" customHeight="1">
@@ -43131,10 +43134,10 @@
       </c>
       <c r="V10" s="569"/>
       <c r="W10" s="674" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X10" s="499" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y10" s="504" t="s">
         <v>14</v>
@@ -43209,10 +43212,10 @@
       <c r="Q12" s="283"/>
       <c r="R12" s="294"/>
       <c r="S12" s="674" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T12" s="499" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U12" s="504" t="s">
         <v>14</v>
@@ -43311,7 +43314,7 @@
       </c>
       <c r="R14" s="401"/>
       <c r="S14" s="398" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T14" s="399" t="s">
         <v>16</v>
@@ -43410,13 +43413,13 @@
         <v>185</v>
       </c>
       <c r="L16" s="665" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M16" s="669" t="s">
         <v>32</v>
       </c>
       <c r="N16" s="629" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O16" s="389" t="s">
         <v>154</v>
@@ -43428,10 +43431,10 @@
         <v>27</v>
       </c>
       <c r="R16" s="655" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S16" s="389" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="T16" s="354" t="s">
         <v>224</v>
@@ -43740,13 +43743,13 @@
       </c>
       <c r="M24" s="159"/>
       <c r="N24" s="692" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O24" s="486">
         <v>516</v>
       </c>
       <c r="P24" s="562" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="466" t="s">
         <v>27</v>
@@ -43836,33 +43839,33 @@
         <v>27</v>
       </c>
       <c r="N26" s="375" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O26" s="451" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P26" s="386" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q26" s="657" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="R26" s="629"/>
       <c r="S26" s="638" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="T26" s="673" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U26" s="75" t="s">
         <v>27</v>
       </c>
       <c r="V26" s="330"/>
       <c r="W26" s="638" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="X26" s="673" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Y26" s="75" t="s">
         <v>27</v>
@@ -43920,13 +43923,13 @@
         <v>440</v>
       </c>
       <c r="L28" s="423" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M28" s="370" t="s">
         <v>50</v>
       </c>
       <c r="N28" s="685" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O28" s="451">
         <v>522</v>
@@ -43939,28 +43942,28 @@
       </c>
       <c r="R28" s="425"/>
       <c r="S28" s="451" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="T28" s="386" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="U28" s="682" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="V28" s="683" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W28" s="451" t="s">
+        <v>330</v>
+      </c>
+      <c r="X28" s="386" t="s">
         <v>328</v>
       </c>
-      <c r="X28" s="386" t="s">
-        <v>326</v>
-      </c>
       <c r="Y28" s="682" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Z28" s="683" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -44236,13 +44239,13 @@
         <v>110</v>
       </c>
       <c r="L34" s="408" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M34" s="357" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N34" s="521" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O34" s="451">
         <v>535</v>
@@ -44319,7 +44322,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
       <c r="K36" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" s="499" t="s">
         <v>44</v>
@@ -44328,7 +44331,7 @@
         <v>27</v>
       </c>
       <c r="N36" s="396" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O36" s="417" t="s">
         <v>191</v>
@@ -44340,7 +44343,7 @@
         <v>27</v>
       </c>
       <c r="R36" s="688" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="S36" s="417">
         <v>516</v>
@@ -44407,7 +44410,7 @@
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="392" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" s="499" t="s">
         <v>13</v>
@@ -44416,13 +44419,13 @@
         <v>27</v>
       </c>
       <c r="N38" s="396" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O38" s="435" t="s">
         <v>35</v>
       </c>
       <c r="P38" s="368" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q38" s="430" t="s">
         <v>32</v>
@@ -44683,16 +44686,16 @@
         <v>40319</v>
       </c>
       <c r="K44" s="398" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L44" s="399" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M44" s="403" t="s">
         <v>27</v>
       </c>
       <c r="N44" s="401" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O44" s="130"/>
       <c r="P44" s="131"/>
@@ -44795,16 +44798,16 @@
         <v>40319</v>
       </c>
       <c r="K46" s="389" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L46" s="354" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M46" s="357" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N46" s="483" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O46" s="352" t="s">
         <v>20</v>
@@ -44896,25 +44899,25 @@
         <v>535</v>
       </c>
       <c r="T48" s="368" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U48" s="430" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="529" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="W48" s="497">
         <v>535</v>
       </c>
       <c r="X48" s="368" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Y48" s="430" t="s">
         <v>27</v>
       </c>
       <c r="Z48" s="529" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="13.7" customHeight="1">
@@ -45186,7 +45189,7 @@
         <v>35</v>
       </c>
       <c r="L56" s="562" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M56" s="662" t="s">
         <v>32</v>
@@ -45391,6 +45394,11 @@
     </row>
   </sheetData>
   <mergeCells count="252">
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="P54:P55"/>
     <mergeCell ref="Q54:Q55"/>
     <mergeCell ref="R54:R55"/>
     <mergeCell ref="Q50:Q51"/>
@@ -45401,6 +45409,8 @@
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="O26:O27"/>
     <mergeCell ref="Z32:Z33"/>
     <mergeCell ref="O52:O53"/>
     <mergeCell ref="P52:P53"/>
@@ -45416,20 +45426,22 @@
     <mergeCell ref="Y32:Y33"/>
     <mergeCell ref="V34:V35"/>
     <mergeCell ref="W36:W37"/>
+    <mergeCell ref="U36:U37"/>
     <mergeCell ref="R50:R51"/>
     <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="P34:P35"/>
     <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="S34:S35"/>
     <mergeCell ref="T34:T35"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="X14:X15"/>
     <mergeCell ref="X12:X13"/>
     <mergeCell ref="W32:W33"/>
@@ -45445,10 +45457,9 @@
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="U28:U29"/>
     <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="T28:T29"/>
     <mergeCell ref="T18:T19"/>
     <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U36:U37"/>
     <mergeCell ref="T30:T31"/>
     <mergeCell ref="Z12:Z13"/>
     <mergeCell ref="Z14:Z15"/>
@@ -45474,10 +45485,10 @@
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="R10:R11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="P1:U1"/>
@@ -45546,7 +45557,6 @@
     <mergeCell ref="L28:L30"/>
     <mergeCell ref="M28:M30"/>
     <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K36:K37"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="O34:O35"/>
     <mergeCell ref="O14:O15"/>
@@ -45558,12 +45568,7 @@
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="N24:N25"/>
     <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="N38:N39"/>
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="W12:W13"/>
@@ -45598,11 +45603,8 @@
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="P24:P25"/>
     <mergeCell ref="O50:O51"/>
     <mergeCell ref="P50:P51"/>
-    <mergeCell ref="P54:P55"/>
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="N16:N17"/>
@@ -45612,6 +45614,7 @@
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="P14:P15"/>
+    <mergeCell ref="U16:U17"/>
     <mergeCell ref="V18:V19"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="S16:S17"/>
@@ -45752,25 +45755,25 @@
       <c r="J3" s="25"/>
       <c r="K3" s="33"/>
       <c r="L3" s="27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M3" s="61"/>
       <c r="N3" s="29"/>
       <c r="O3" s="71"/>
       <c r="P3" s="30" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="69"/>
       <c r="S3" s="71"/>
       <c r="T3" s="30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="69"/>
       <c r="W3" s="71"/>
       <c r="X3" s="30" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Y3" s="31"/>
       <c r="Z3" s="69"/>
@@ -46016,7 +46019,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="423" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="U8" s="370" t="s">
         <v>32</v>
@@ -46128,7 +46131,7 @@
         <v>35</v>
       </c>
       <c r="X11" s="423" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Y11" s="370" t="s">
         <v>32</v>
@@ -46304,7 +46307,7 @@
         <v>35</v>
       </c>
       <c r="L15" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M15" s="370" t="s">
         <v>32</v>
@@ -46314,7 +46317,7 @@
         <v>35</v>
       </c>
       <c r="P15" s="423" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q15" s="370" t="s">
         <v>32</v>
@@ -46454,7 +46457,7 @@
         <v>533</v>
       </c>
       <c r="L18" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M18" s="598" t="s">
         <v>27</v>
@@ -46464,7 +46467,7 @@
         <v>533</v>
       </c>
       <c r="P18" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q18" s="598" t="s">
         <v>27</v>
@@ -46474,7 +46477,7 @@
         <v>533</v>
       </c>
       <c r="T18" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U18" s="598" t="s">
         <v>27</v>
@@ -46484,7 +46487,7 @@
         <v>533</v>
       </c>
       <c r="X18" s="363" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Y18" s="598" t="s">
         <v>27</v>
@@ -46925,7 +46928,7 @@
       <c r="Y29" s="320"/>
       <c r="Z29" s="114"/>
       <c r="AA29" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="13.7" customHeight="1" thickBot="1">
@@ -47166,7 +47169,7 @@
       </c>
       <c r="N34" s="375"/>
       <c r="O34" s="507" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P34" s="539" t="s">
         <v>61</v>
@@ -47306,40 +47309,40 @@
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="582" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L38" s="614" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M38" s="598" t="s">
         <v>27</v>
       </c>
       <c r="N38" s="696"/>
       <c r="O38" s="638" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P38" s="673" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q38" s="75" t="s">
         <v>27</v>
       </c>
       <c r="R38" s="74"/>
       <c r="S38" s="638" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="T38" s="673" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U38" s="75" t="s">
         <v>27</v>
       </c>
       <c r="V38" s="74"/>
       <c r="W38" s="582" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="X38" s="614" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Y38" s="598" t="s">
         <v>27</v>
@@ -47702,7 +47705,7 @@
         <v>40319</v>
       </c>
       <c r="K46" s="601" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L46" s="354" t="s">
         <v>44</v>
@@ -47712,7 +47715,7 @@
       </c>
       <c r="N46" s="655"/>
       <c r="O46" s="601" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P46" s="354" t="s">
         <v>44</v>
@@ -47722,7 +47725,7 @@
       </c>
       <c r="R46" s="655"/>
       <c r="S46" s="601" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="T46" s="354" t="s">
         <v>44</v>
@@ -47732,7 +47735,7 @@
       </c>
       <c r="V46" s="655"/>
       <c r="W46" s="601" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="X46" s="354" t="s">
         <v>44</v>
@@ -47818,7 +47821,7 @@
         <v>40319</v>
       </c>
       <c r="K48" s="601" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L48" s="354" t="s">
         <v>13</v>
@@ -47828,7 +47831,7 @@
       </c>
       <c r="N48" s="655"/>
       <c r="O48" s="601" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P48" s="354" t="s">
         <v>13</v>
@@ -47838,7 +47841,7 @@
       </c>
       <c r="R48" s="655"/>
       <c r="S48" s="601" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="T48" s="354" t="s">
         <v>13</v>
@@ -47848,7 +47851,7 @@
       </c>
       <c r="V48" s="655"/>
       <c r="W48" s="601" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="X48" s="354" t="s">
         <v>13</v>
